--- a/Files_error_while_running_system.xlsx
+++ b/Files_error_while_running_system.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiquynh\Documents\Vu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68A69C5-4EC4-4E66-B4C1-701FA72B80E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4387654-A5E0-4CE5-AB08-59C4D1586853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3060" yWindow="1395" windowWidth="18900" windowHeight="10965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$42</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="16">
   <si>
     <t>Error processing 639945004.pdf: 'charmap' codec can't encode character '\ufb01' in position 2408: character maps to &lt;undefined&gt;</t>
   </si>
@@ -62,6 +65,24 @@
   <si>
     <t xml:space="preserve">Error processing 639945311.pdf: 'charmap' codec can't encode character '\u25cf' in position 1948: character maps to &lt;undefined&gt;
 </t>
+  </si>
+  <si>
+    <t>User_id</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>My Comment</t>
+  </si>
+  <si>
+    <t>OCR</t>
+  </si>
+  <si>
+    <t>Unappropriate Content Format</t>
+  </si>
+  <si>
+    <t>Unsupported file format</t>
   </si>
 </sst>
 </file>
@@ -389,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -402,122 +423,378 @@
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>639945994</v>
+    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>639945004</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>639944968</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>639945080</v>
+        <v>639944972</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
+        <v>639945004</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>639945018</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>639945024</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>639945030</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>639945040</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>639945042</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>639945045</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>639945059</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>639945064</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>639945080</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>639945094</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>639945098</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>639945100</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>639945111</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>639945126</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="C18" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>639945216</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>639945226</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>639945230</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>639945242</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>639945249</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>639945259</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>639945263</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>639945277</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="C26" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>639945279</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>639945281</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>639945283</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>639945285</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>639945294</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>639945283</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>639945294</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="C31" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
         <v>639945301</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="C32" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>639945302</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="C33" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>639945311</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C34" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>639945313</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>639945318</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>639945327</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>639945331</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>639945332</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>639945516</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>639945523</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>639945994</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C42" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C42">
+      <sortCondition ref="A1:A42"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>